--- a/VRSS_Ref/final/refr-assessmentpanel.xlsx
+++ b/VRSS_Ref/final/refr-assessmentpanel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/VRSS_Ref/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CF3CFB-799E-C846-BCAB-5C8EAFE0AB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984C3596-3A5A-1447-BCAA-3D7B9FEE6E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="500" windowWidth="19520" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16440" yWindow="760" windowWidth="13080" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assessmentpanel.txt" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Please enter either an assessment panel user defined ID or ImmPort accession.  The template column is associated with the following database table column assessment_panel.user_defined_id and has data type varchar(100)</t>
         </r>
@@ -819,28 +818,28 @@
     <t>Patrone_SeroNet_Stub</t>
   </si>
   <si>
-    <t>Physical Exam</t>
-  </si>
-  <si>
-    <t>Coinfection</t>
-  </si>
-  <si>
     <t>COVID-19 Symptom Status</t>
   </si>
   <si>
-    <t>Reference_Study</t>
-  </si>
-  <si>
     <t>Medical History</t>
   </si>
   <si>
-    <t>refr-Physical_Exam</t>
-  </si>
-  <si>
-    <t>refr-Coinfection</t>
-  </si>
-  <si>
     <t>refr-COVID19_Symptom_Status</t>
+  </si>
+  <si>
+    <t>refr-COVID19_History</t>
+  </si>
+  <si>
+    <t>COVID-19 Interpretations</t>
+  </si>
+  <si>
+    <t>refr-Comorbidity</t>
+  </si>
+  <si>
+    <t>Comorbidity</t>
+  </si>
+  <si>
+    <t>SeroNet_Reference_Study</t>
   </si>
 </sst>
 </file>
@@ -1301,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="217" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="158" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1348,53 +1347,53 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="40" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="C5" t="s">
+        <v>237</v>
+      </c>
       <c r="D5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3120,34 +3119,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="3"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="3"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Study ID" error="User defined ID value not selected" promptTitle="Study ID" prompt="Please choose user defined ID value from the list" sqref="C4:C201" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Study ID" error="User defined ID value not selected" promptTitle="Study ID" prompt="Please choose user defined ID value from the list" sqref="C4:C198" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>lookupstudy_id1083</formula1>
     </dataValidation>
   </dataValidations>
